--- a/biology/Botanique/Hugoniaceae/Hugoniaceae.xlsx
+++ b/biology/Botanique/Hugoniaceae/Hugoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hugoniaceae (les Hugoniacées) sont une famille de plantes à fleurs dicotylédones. Selon Watson et Dallwitz[Qui ?], elle comprend 40 espèces en 5 genres.
 Ce sont des lianes.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nom vient du genre type Hugonia nommé en l'honneur de Augustus Johannes Hugo (1686-1760)[1],
-[2], auteur  d’un petit opuscule sur la botanique, en 1711[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nom vient du genre type Hugonia nommé en l'honneur de Augustus Johannes Hugo (1686-1760),
+, auteur  d’un petit opuscule sur la botanique, en 1711
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[4] et en classification phylogénétique APG III (2009)[5], cette famille n´existe pas; ces plantes sont réassignées aux Linacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009), cette famille n´existe pas; ces plantes sont réassignées aux Linacées.
 </t>
         </is>
       </c>
